--- a/wash_P/ERI.xlsx
+++ b/wash_P/ERI.xlsx
@@ -87267,7 +87267,7 @@
         <v>0</v>
       </c>
       <c r="CV28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW28" t="n">
         <v>0</v>
@@ -90395,7 +90395,7 @@
         <v>0</v>
       </c>
       <c r="CV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW29" t="n">
         <v>0</v>
